--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\CS518\LowLatency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B14C78-48DA-4B13-BB33-0EEAAA62CF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC25AEA-E297-4D49-85DF-7D742047229A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2610" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>keyframe</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Live Latency</t>
+  </si>
+  <si>
+    <t>Buffer Length</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +384,7 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +406,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -418,7 +424,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -432,7 +438,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90</v>
       </c>
@@ -446,7 +452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
@@ -460,7 +466,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -474,7 +480,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>180</v>
       </c>
@@ -488,7 +494,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
@@ -505,7 +511,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>120</v>
       </c>
@@ -513,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E10">
         <v>6.6000000000000003E-2</v>
@@ -522,7 +528,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>120</v>
       </c>
@@ -530,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>6.3090000000000002</v>
@@ -545,7 +551,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>120</v>
       </c>
@@ -553,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0.2</v>
@@ -562,12 +568,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
       <c r="B13">
         <v>4</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -576,12 +585,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
       <c r="B14">
         <v>4</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -589,13 +601,19 @@
       <c r="F14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>120</v>
       </c>
       <c r="B15">
         <v>4</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -603,8 +621,11 @@
       <c r="F15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>120</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\CS518\LowLatency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC25AEA-E297-4D49-85DF-7D742047229A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677556E-FF5D-434F-8B08-1483E7B14C64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>Segment Size (KB)</t>
   </si>
   <si>
-    <t>Live Latency</t>
-  </si>
-  <si>
     <t>Buffer Length</t>
+  </si>
+  <si>
+    <t>Not Chunked</t>
   </si>
 </sst>
 </file>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,11 +380,10 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,22 +394,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -420,11 +419,17 @@
       <c r="C2">
         <v>2.5</v>
       </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -434,11 +439,17 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90</v>
       </c>
@@ -448,11 +459,17 @@
       <c r="C4">
         <v>4.2</v>
       </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
@@ -462,11 +479,17 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -476,11 +499,17 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="I6">
+        <v>6.5</v>
+      </c>
+      <c r="L6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>180</v>
       </c>
@@ -490,11 +519,17 @@
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>6.5</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
@@ -504,14 +539,17 @@
       <c r="C9">
         <v>6.5</v>
       </c>
+      <c r="D9">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="E9">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>120</v>
       </c>
@@ -521,14 +559,14 @@
       <c r="C10">
         <v>7.5</v>
       </c>
+      <c r="D10">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="E10">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>120</v>
       </c>
@@ -539,19 +577,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>6.3090000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>2000</v>
       </c>
       <c r="F11">
-        <v>2000</v>
-      </c>
-      <c r="G11">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>120</v>
       </c>
@@ -561,14 +596,14 @@
       <c r="C12">
         <v>12</v>
       </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
       <c r="E12">
-        <v>0.2</v>
-      </c>
-      <c r="F12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
@@ -578,14 +613,14 @@
       <c r="C13">
         <v>15</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
       <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -595,17 +630,17 @@
       <c r="C14">
         <v>20</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2000</v>
-      </c>
-      <c r="H14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>120</v>
       </c>
@@ -615,27 +650,27 @@
       <c r="C15">
         <v>25</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2000</v>
-      </c>
-      <c r="H15">
+        <v>2000</v>
+      </c>
+      <c r="G15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>120</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
       <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
         <v>2000</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\CS518\LowLatency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677556E-FF5D-434F-8B08-1483E7B14C64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD33902-4E12-40D4-85BE-9DAFD6ED0189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>keyframe</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Not Chunked</t>
+  </si>
+  <si>
+    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -104,6 +107,1954 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F8F-4D4D-A5C7-12C28D7BB9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="256363264"/>
+        <c:axId val="256375744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Download Time</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$2:$J$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3F8F-4D4D-A5C7-12C28D7BB9D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="256363264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Segment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Duration (secs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256375744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256375744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SEconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256363264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1276-413C-BAAF-667A74CF1C03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200612864"/>
+        <c:axId val="200613280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200612864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200613280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200613280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200612864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE349B9F-7030-405C-B9B8-A8CA76BB87CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A421628E-8F9F-44E1-B809-9D017A3FA05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +2323,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +2356,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
@@ -423,7 +2377,10 @@
         <v>2000</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>4.5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="L2">
         <v>6.5</v>
@@ -443,7 +2400,10 @@
         <v>2000</v>
       </c>
       <c r="I3">
-        <v>6.5</v>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -465,6 +2425,9 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="L4">
         <v>10</v>
       </c>
@@ -483,7 +2446,10 @@
         <v>2000</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>4.5</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -503,7 +2469,10 @@
         <v>2000</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
       </c>
       <c r="L6">
         <v>18</v>
@@ -523,7 +2492,10 @@
         <v>2000</v>
       </c>
       <c r="I7">
-        <v>6.5</v>
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
       </c>
       <c r="L7">
         <v>28</v>
@@ -537,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
         <v>3.3000000000000002E-2</v>
@@ -557,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>6.6000000000000003E-2</v>
@@ -594,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0.2</v>
@@ -611,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -628,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -648,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -667,6 +2639,9 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
       <c r="D16">
         <v>4</v>
       </c>
@@ -677,5 +2652,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>